--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1082902014721054</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.341861532136102</v>
+        <v>-2.47078595486643</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09723450717128279</v>
+        <v>-0.2183421865084074</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04901349254072004</v>
+        <v>0.0314343587954875</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1109959593560144</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.448730003353866</v>
+        <v>-2.577495846708239</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1716411702104854</v>
+        <v>-0.2752544947764455</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03350686925507741</v>
+        <v>0.0182009098720849</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.123247449949336</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.605397277986756</v>
+        <v>-2.761786428791049</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1833595761728458</v>
+        <v>-0.2710875167129027</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0524930900015677</v>
+        <v>0.03239681362339594</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1394522549336449</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.785656894316938</v>
+        <v>-2.942130824095298</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1708183872175522</v>
+        <v>-0.2476708321705145</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05637096566433186</v>
+        <v>0.05904973727660933</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1549335207208734</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.958282743456941</v>
+        <v>-3.119064542975173</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.163987275637974</v>
+        <v>-0.2262156525245481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06592293338288319</v>
+        <v>0.05514441518339151</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1646573535927737</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.841628094980754</v>
+        <v>-2.992852742454682</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1418221483242728</v>
+        <v>-0.1721364258000048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0826780642938291</v>
+        <v>0.07451976532164707</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1656899596923945</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.688207428110194</v>
+        <v>-2.774053763362483</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1823629657870395</v>
+        <v>-0.2154316450389657</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1049981114594243</v>
+        <v>0.1084154970112436</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1521827862606309</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.222812945003679</v>
+        <v>-2.297320854875221</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2138653687410767</v>
+        <v>-0.2597649492697518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1056171809463236</v>
+        <v>0.1319907609295863</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1190934149888153</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.822349397302409</v>
+        <v>-1.859694840339692</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2757125452046832</v>
+        <v>-0.3471574334375973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1465867726448441</v>
+        <v>0.1984099027860963</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06082074660665986</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.332910011356455</v>
+        <v>-1.337076989419998</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3881910668071764</v>
+        <v>-0.4522705529476808</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2202060280903649</v>
+        <v>0.2799416591710697</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.02910497253385377</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7923507338095397</v>
+        <v>-0.7607007300517294</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7085421435382658</v>
+        <v>-0.8147482409010819</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2668430027172284</v>
+        <v>0.3333542425959274</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1590426348834915</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2799575931148497</v>
+        <v>-0.1937965387933586</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.0058717643255</v>
+        <v>-1.123943258533773</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3106810513584951</v>
+        <v>0.3936058665691611</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3355056502153778</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3298953824380892</v>
+        <v>0.4899769930194147</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.33065086516978</v>
+        <v>-1.432305124522026</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4803890399809352</v>
+        <v>0.5912470023453088</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5525207633431223</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7793514184198238</v>
+        <v>1.027482397737852</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.664586705134079</v>
+        <v>-1.748796013289976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5407486199139533</v>
+        <v>0.6694766481863682</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8016664919978803</v>
       </c>
       <c r="E16" t="n">
-        <v>1.333974856851873</v>
+        <v>1.61014388968001</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.971672007145898</v>
+        <v>-2.032576856163929</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6324489738216703</v>
+        <v>0.7720628663326845</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.067284367639351</v>
       </c>
       <c r="E17" t="n">
-        <v>1.836428120277599</v>
+        <v>2.164409304674807</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.331430668722357</v>
+        <v>-2.378809306892146</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7361123118831238</v>
+        <v>0.8367504433879068</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.331733200252203</v>
       </c>
       <c r="E18" t="n">
-        <v>2.189419711945538</v>
+        <v>2.537244055640067</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.685994025974275</v>
+        <v>-2.687618854657132</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9096054682254623</v>
+        <v>1.029336556595167</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.573690539831277</v>
       </c>
       <c r="E19" t="n">
-        <v>2.368372878186125</v>
+        <v>2.725519249504071</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.057790386987371</v>
+        <v>-2.997678129888774</v>
       </c>
       <c r="G19" t="n">
-        <v>1.025491616648947</v>
+        <v>1.142138336156336</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.778843492229756</v>
       </c>
       <c r="E20" t="n">
-        <v>2.677670972413186</v>
+        <v>3.06137938920351</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.407649121099193</v>
+        <v>-3.329186180599278</v>
       </c>
       <c r="G20" t="n">
-        <v>1.168961427678362</v>
+        <v>1.263882772679986</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.936773696501343</v>
       </c>
       <c r="E21" t="n">
-        <v>2.959193279021141</v>
+        <v>3.381808535781224</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.730984539701611</v>
+        <v>-3.584909757461805</v>
       </c>
       <c r="G21" t="n">
-        <v>1.351267327879033</v>
+        <v>1.457427681191094</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.043762798415022</v>
       </c>
       <c r="E22" t="n">
-        <v>3.089245445082776</v>
+        <v>3.578089548448223</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.97542244932193</v>
+        <v>-3.785523036695746</v>
       </c>
       <c r="G22" t="n">
-        <v>1.396766800443762</v>
+        <v>1.487372346736716</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.100787000909073</v>
       </c>
       <c r="E23" t="n">
-        <v>3.248795814754654</v>
+        <v>3.727080971364239</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.22137570686363</v>
+        <v>-3.977681595508605</v>
       </c>
       <c r="G23" t="n">
-        <v>1.496123488606697</v>
+        <v>1.618102134670218</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.111922151174806</v>
       </c>
       <c r="E24" t="n">
-        <v>3.318967188614518</v>
+        <v>3.794336924389247</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.439845023830047</v>
+        <v>-4.138749142863894</v>
       </c>
       <c r="G24" t="n">
-        <v>1.540800178178493</v>
+        <v>1.648202329988411</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.084946690037575</v>
       </c>
       <c r="E25" t="n">
-        <v>3.397383470182662</v>
+        <v>3.87129427569861</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.518999309417056</v>
+        <v>-4.182914108987897</v>
       </c>
       <c r="G25" t="n">
-        <v>1.578715287127859</v>
+        <v>1.667842995621053</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.027812739833014</v>
       </c>
       <c r="E26" t="n">
-        <v>3.306785852858506</v>
+        <v>3.766770949482942</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.555397850603689</v>
+        <v>-4.204976464667567</v>
       </c>
       <c r="G26" t="n">
-        <v>1.553570697308243</v>
+        <v>1.628514700463661</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.953025417762672</v>
       </c>
       <c r="E27" t="n">
-        <v>3.450492923031176</v>
+        <v>3.88031378266636</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.548359365994016</v>
+        <v>-4.172640910069092</v>
       </c>
       <c r="G27" t="n">
-        <v>1.503161363295693</v>
+        <v>1.585783657850692</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.869372704599775</v>
       </c>
       <c r="E28" t="n">
-        <v>3.375772760764125</v>
+        <v>3.762069680906568</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.461677439414582</v>
+        <v>-4.049479017892679</v>
       </c>
       <c r="G28" t="n">
-        <v>1.463687907017236</v>
+        <v>1.528745705923244</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.784068487317276</v>
       </c>
       <c r="E29" t="n">
-        <v>3.287219597548428</v>
+        <v>3.646461656311681</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.455302548501211</v>
+        <v>-4.041434469126711</v>
       </c>
       <c r="G29" t="n">
-        <v>1.445070688280178</v>
+        <v>1.501233404036493</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.699192233681291</v>
       </c>
       <c r="E30" t="n">
-        <v>3.192770941071284</v>
+        <v>3.532547991356799</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.267668381268469</v>
+        <v>-3.830104578641968</v>
       </c>
       <c r="G30" t="n">
-        <v>1.367355815490294</v>
+        <v>1.408619998875684</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.614737485505708</v>
       </c>
       <c r="E31" t="n">
-        <v>3.076218759268791</v>
+        <v>3.380449632513429</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.224975458697797</v>
+        <v>-3.819487384461477</v>
       </c>
       <c r="G31" t="n">
-        <v>1.24440251618533</v>
+        <v>1.273615886839531</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.530243160230532</v>
       </c>
       <c r="E32" t="n">
-        <v>2.907680598504354</v>
+        <v>3.177150872539766</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.111369193763997</v>
+        <v>-3.73363495000242</v>
       </c>
       <c r="G32" t="n">
-        <v>1.236084417995839</v>
+        <v>1.249121472461329</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.44390727501536</v>
       </c>
       <c r="E33" t="n">
-        <v>2.698604669880533</v>
+        <v>2.939594087994519</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.018804277296989</v>
+        <v>-3.668290183418002</v>
       </c>
       <c r="G33" t="n">
-        <v>1.076735932067965</v>
+        <v>1.095028673004993</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.356726597972071</v>
       </c>
       <c r="E34" t="n">
-        <v>2.474752802941814</v>
+        <v>2.691585702732517</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.824574427865894</v>
+        <v>-3.462402615131881</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9577885917678821</v>
+        <v>0.9834009907465633</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.267212224527363</v>
       </c>
       <c r="E35" t="n">
-        <v>2.298627228958631</v>
+        <v>2.467447173075726</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.72764613887743</v>
+        <v>-3.407206013727536</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9248174998242357</v>
+        <v>0.940302775886192</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.178261301434657</v>
       </c>
       <c r="E36" t="n">
-        <v>2.123932528883099</v>
+        <v>2.259716729464812</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.512409401497778</v>
+        <v>-3.208459396724782</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8343455261594892</v>
+        <v>0.8514538011422722</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.089224445241673</v>
       </c>
       <c r="E37" t="n">
-        <v>1.859267819859784</v>
+        <v>1.963968023071709</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.448980090798687</v>
+        <v>-3.161473547470819</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8108074674024282</v>
+        <v>0.8290196988101252</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.001069190343901</v>
       </c>
       <c r="E38" t="n">
-        <v>1.645155166287378</v>
+        <v>1.730591634844893</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.34871584066875</v>
+        <v>-3.070762179940449</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7760127126353049</v>
+        <v>0.8105878959587989</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9124488295770371</v>
       </c>
       <c r="E39" t="n">
-        <v>1.466546605229154</v>
+        <v>1.522397041598973</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.214544575316697</v>
+        <v>-2.939696630674397</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6652462383724437</v>
+        <v>0.6858944929630724</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8222316234243383</v>
       </c>
       <c r="E40" t="n">
-        <v>1.240840579433121</v>
+        <v>1.265018444980091</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.140756066883379</v>
+        <v>-2.883357037921825</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5856979440282549</v>
+        <v>0.6050702445631267</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7296604639023436</v>
       </c>
       <c r="E41" t="n">
-        <v>1.007689251936025</v>
+        <v>0.9629954845852803</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.999978750681468</v>
+        <v>-2.751457422130321</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5647313108443637</v>
+        <v>0.5716343930637982</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6349825901180188</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7780852230948948</v>
+        <v>0.6894155650299389</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.949168698784294</v>
+        <v>-2.697279998176821</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5368927013955521</v>
+        <v>0.5606112966729305</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5403596546711548</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6098020091733382</v>
+        <v>0.5146116891532687</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.834839067927871</v>
+        <v>-2.586384830651166</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4751833670048906</v>
+        <v>0.490201443828458</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4478882234784333</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4163022347923098</v>
+        <v>0.3178933633610409</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.781450881330083</v>
+        <v>-2.502088303838494</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4577634225562893</v>
+        <v>0.4819425079446125</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.361312197753111</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3613239849902399</v>
+        <v>0.2680695531981688</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.708884958893306</v>
+        <v>-2.43593996676246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4017513572071314</v>
+        <v>0.4198489235275997</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2820418869398699</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1772834703848971</v>
+        <v>0.08927984569895007</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.667452437401134</v>
+        <v>-2.397713188347275</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2989028731698133</v>
+        <v>0.3095972223159138</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2119144147946431</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05434968854158879</v>
+        <v>-0.03311293650408272</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.598913211272248</v>
+        <v>-2.326986176750894</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2673498467996061</v>
+        <v>0.2982630663799046</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1505201800796997</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0009634077120158337</v>
+        <v>-0.0888163819908061</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.512807049811664</v>
+        <v>-2.219105237209727</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2110681965113255</v>
+        <v>0.2310333399439965</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0972920382200634</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1127679669667023</v>
+        <v>-0.192635859745507</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.436773728327574</v>
+        <v>-2.114367218915844</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1678321395780092</v>
+        <v>0.1904321403342318</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.05026621258907717</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1952591285762004</v>
+        <v>-0.2629798411568908</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.372012960791142</v>
+        <v>-2.066296320777945</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1332331693481221</v>
+        <v>0.1446130693348874</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.007004509301791774</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2456952990985276</v>
+        <v>-0.3238419957275492</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.265684879292976</v>
+        <v>-1.956225156086577</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09580599694015429</v>
+        <v>0.1305489084497539</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.03412751569525489</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3434692431053017</v>
+        <v>-0.4362833121687607</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.221733385405835</v>
+        <v>-1.914929866746673</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03427353954574971</v>
+        <v>0.06046902269140206</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.07443462653783782</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4346310370554503</v>
+        <v>-0.5373422889405</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.141897818422898</v>
+        <v>-1.862046694469233</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02742900971128301</v>
+        <v>0.04561501452987986</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1144578533103305</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5149862564549766</v>
+        <v>-0.6504734256671134</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.103083076475328</v>
+        <v>-1.832545441255606</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02544684351803637</v>
+        <v>-0.02641234794932855</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.154801295230668</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4881210804062549</v>
+        <v>-0.6360860068233035</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.082970942159561</v>
+        <v>-1.817593235865127</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.05231506917014182</v>
+        <v>-0.03708352010971257</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1953375458645796</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.521216596167958</v>
+        <v>-0.6759388337626984</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.059237098865264</v>
+        <v>-1.817966507319297</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1131656352479421</v>
+        <v>-0.108316765867795</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2358860681070295</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6584505781983013</v>
+        <v>-0.8275102211413583</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.046119534870443</v>
+        <v>-1.79094092213259</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1017753666096721</v>
+        <v>-0.1078276094850431</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2757501264172117</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6821923504613963</v>
+        <v>-0.8786581690934504</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.999585026917273</v>
+        <v>-1.74205273028785</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1390531084518366</v>
+        <v>-0.1399759184357565</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3143272105029359</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7069386620790952</v>
+        <v>-0.9147801112531774</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.019188487388633</v>
+        <v>-1.770854404485247</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1454109215862584</v>
+        <v>-0.150948391410454</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.352107375956828</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8444263711109656</v>
+        <v>-1.068761295225669</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.047652265531111</v>
+        <v>-1.800060456091328</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1821915780768733</v>
+        <v>-0.1865695886945709</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3893643590500613</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.929979334517739</v>
+        <v>-1.181116612851459</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.988096561050047</v>
+        <v>-1.747607277890995</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1478640225481391</v>
+        <v>-0.1622209453581116</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4276769114488975</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9247523143180081</v>
+        <v>-1.160769049154467</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.950513248948831</v>
+        <v>-1.68747397852905</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2068457916723833</v>
+        <v>-0.2132078742515423</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4676457007666431</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.024585350529484</v>
+        <v>-1.267729008473744</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.97223252424783</v>
+        <v>-1.714122632737526</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2390569224528017</v>
+        <v>-0.2583926277470687</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.510722753564427</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.10139022166966</v>
+        <v>-1.343709876779633</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.996804398551979</v>
+        <v>-1.728922967879495</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2304265448768167</v>
+        <v>-0.2463595027155062</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5567588785890103</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.127930309997675</v>
+        <v>-1.383687127537084</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.049070941025227</v>
+        <v>-1.782502059649104</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2546098997098772</v>
+        <v>-0.271846867955454</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6059407003905365</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.151164018337038</v>
+        <v>-1.38185919526887</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.10422118845814</v>
+        <v>-1.82325695926941</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.291502171684337</v>
+        <v>-0.3221336079119779</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6577230339953173</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.177976131286883</v>
+        <v>-1.39359650877221</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.117898049713538</v>
+        <v>-1.878515772582784</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2850821466408869</v>
+        <v>-0.336317313249754</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7110693404393873</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.227811529942613</v>
+        <v>-1.433549362702591</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.143963619755043</v>
+        <v>-1.913370909496905</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3188497949883664</v>
+        <v>-0.3686370099106336</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7652788563301435</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.144496365498829</v>
+        <v>-1.351341814207781</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.262817032270907</v>
+        <v>-2.034790868220524</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2865221693586891</v>
+        <v>-0.3290732853720174</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8185225267780663</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.192419052912277</v>
+        <v>-1.387842517107769</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.261165367078273</v>
+        <v>-2.044323928398097</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2947975731008067</v>
+        <v>-0.3355530826417887</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8705275674877548</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.233645421215709</v>
+        <v>-1.429714791407876</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.298341862088098</v>
+        <v>-2.107133559689612</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.287188202737698</v>
+        <v>-0.3359196449685143</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9192767051935333</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.172570404328865</v>
+        <v>-1.36842081299808</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.422708347601087</v>
+        <v>-2.259497843948044</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3295459738964971</v>
+        <v>-0.3637942397372541</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9641247325952857</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.186441220359469</v>
+        <v>-1.392139408275459</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.42784692930269</v>
+        <v>-2.303363339019764</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3601481339316541</v>
+        <v>-0.3893761426820979</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.003093829205325</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.15954371851488</v>
+        <v>-1.329509703583585</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.462806362652535</v>
+        <v>-2.359787100825727</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3695659191013209</v>
+        <v>-0.4021478816532021</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.035450389467383</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.090159142328021</v>
+        <v>-1.261466342964894</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.549826185286887</v>
+        <v>-2.462467246756263</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3747795210461633</v>
+        <v>-0.4067430240318221</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.058997495539447</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9980971054589923</v>
+        <v>-1.149255576539494</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.559596504607714</v>
+        <v>-2.464454368321108</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3477130711741148</v>
+        <v>-0.376980724768547</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.071440255734327</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9107119403392678</v>
+        <v>-1.040392664708763</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.565318170476288</v>
+        <v>-2.488920116427503</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.305310775805913</v>
+        <v>-0.3257242109359937</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.070942933042272</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7405428516852062</v>
+        <v>-0.8667805738344587</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.550005501965851</v>
+        <v>-2.509669617850472</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3172060587645304</v>
+        <v>-0.3392693293252146</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.055931462064677</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5931048967328679</v>
+        <v>-0.6913747062498382</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.536431107384146</v>
+        <v>-2.499651670734885</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3018110509627326</v>
+        <v>-0.3222482729992066</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.027054286227739</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4319126205991841</v>
+        <v>-0.5493077127769433</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.579747673846793</v>
+        <v>-2.58934172609204</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2536206083721919</v>
+        <v>-0.257733303495504</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.9847138880555889</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1575959168663311</v>
+        <v>-0.2483350357874932</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.57852539281059</v>
+        <v>-2.611531250232812</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2435020243449416</v>
+        <v>-0.2372692449492532</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9312925266667573</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1183937992828419</v>
+        <v>0.0962262322864337</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.531171151467871</v>
+        <v>-2.58956129753567</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1625374941893439</v>
+        <v>-0.1565352648094662</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8680839812530041</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2725164848523389</v>
+        <v>0.236735488350914</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.511063896517518</v>
+        <v>-2.579123115073803</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1170910847234926</v>
+        <v>-0.08778805572980887</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.7965884560886907</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5108893432630753</v>
+        <v>0.5045382392560979</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.419575795005309</v>
+        <v>-2.506706013282153</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09934849223689156</v>
+        <v>-0.07140741611438628</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7180733844620221</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6746835410037664</v>
+        <v>0.6843483440475161</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.367537972785842</v>
+        <v>-2.452087616679365</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07905216187674644</v>
+        <v>-0.05668088137430442</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6339518272850071</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9166085774358835</v>
+        <v>0.9560344599015548</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.382452973015039</v>
+        <v>-2.46177010742274</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.08494460553480943</v>
+        <v>-0.03795753643949254</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5470043039286666</v>
       </c>
       <c r="E87" t="n">
-        <v>1.087963351885543</v>
+        <v>1.11820931824548</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.276180394298457</v>
+        <v>-2.352272878088191</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0382667662226038</v>
+        <v>0.001298178157365965</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4602210921286898</v>
       </c>
       <c r="E88" t="n">
-        <v>1.275976889779223</v>
+        <v>1.298059067880886</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.139889349634366</v>
+        <v>-2.201595634421644</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01043669566326667</v>
+        <v>0.02285521455634933</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.378040274636863</v>
       </c>
       <c r="E89" t="n">
-        <v>1.373295223040466</v>
+        <v>1.3804160469415</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.946051069277743</v>
+        <v>-1.993177810208035</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04243061867657825</v>
+        <v>0.06607724331410045</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3022036343867329</v>
       </c>
       <c r="E90" t="n">
-        <v>1.445051170818522</v>
+        <v>1.413301749990402</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.774457815843474</v>
+        <v>-1.801555371670037</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03247610331137319</v>
+        <v>0.057895767356202</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2345919646722847</v>
       </c>
       <c r="E91" t="n">
-        <v>1.481588468959114</v>
+        <v>1.457119061328659</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.473841332529245</v>
+        <v>-1.451463952820035</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03752929611823085</v>
+        <v>0.05570737196802997</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1749650179925784</v>
       </c>
       <c r="E92" t="n">
-        <v>1.546665175406102</v>
+        <v>1.503098541465988</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.224825358309255</v>
+        <v>-1.212742219782199</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04814557541770755</v>
+        <v>0.04360898542405549</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1246958607772486</v>
       </c>
       <c r="E93" t="n">
-        <v>1.59943063299293</v>
+        <v>1.558226221833861</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9535112940680326</v>
+        <v>-0.9474181865073195</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05541034059845366</v>
+        <v>0.07697103652149752</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08462161613935119</v>
       </c>
       <c r="E94" t="n">
-        <v>1.626818511061625</v>
+        <v>1.594616529091357</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.6946261933775821</v>
+        <v>-0.6760254424987966</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05904241822848835</v>
+        <v>0.0742587192719989</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05559897132068429</v>
       </c>
       <c r="E95" t="n">
-        <v>1.592156109081356</v>
+        <v>1.593868766341664</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.4645025121198631</v>
+        <v>-0.4512251489077346</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0004864497427988523</v>
+        <v>0.01803562136868617</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03605562930047641</v>
       </c>
       <c r="E96" t="n">
-        <v>1.52681652682269</v>
+        <v>1.522083542371125</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2711777849730614</v>
+        <v>-0.2700500416417543</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03803926581017678</v>
+        <v>-0.0405448199502578</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02170721120120616</v>
       </c>
       <c r="E97" t="n">
-        <v>1.446896180865685</v>
+        <v>1.431382238531921</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1183969248924102</v>
+        <v>-0.1268327377725126</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04945271143416319</v>
+        <v>-0.04028987310737711</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.007558852510069639</v>
       </c>
       <c r="E98" t="n">
-        <v>1.396887564737758</v>
+        <v>1.385705888970936</v>
       </c>
       <c r="F98" t="n">
-        <v>-9.000130291261469e-05</v>
+        <v>-0.01186634972956412</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1094170627686485</v>
+        <v>-0.0889267776332975</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.009711599638139681</v>
       </c>
       <c r="E99" t="n">
-        <v>1.327517626647141</v>
+        <v>1.313568130849236</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09372616743244341</v>
+        <v>0.1045144443627631</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.125831857941969</v>
+        <v>-0.1104618568879179</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.03207284890525629</v>
       </c>
       <c r="E100" t="n">
-        <v>1.162719499472523</v>
+        <v>1.148924313605835</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1443977673359953</v>
+        <v>0.1455865027349773</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09840067550522508</v>
+        <v>-0.08125031599574645</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.05681472276416255</v>
       </c>
       <c r="E101" t="n">
-        <v>1.059533119380286</v>
+        <v>1.018614761018612</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1777043156518533</v>
+        <v>0.2079081974850938</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1793926520912764</v>
+        <v>-0.1655041483610464</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.0799369319147942</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9104410595526071</v>
+        <v>0.8604537906483666</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1839438041749859</v>
+        <v>0.1886700794991066</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.152901967338078</v>
+        <v>-0.1434738135169066</v>
       </c>
     </row>
   </sheetData>
